--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF409E-3065-4A21-95BC-F5F1EC3585CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474DC85E-AB14-4109-B407-00A301298585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23970" yWindow="2070" windowWidth="21600" windowHeight="11295" xr2:uid="{D038CAC5-D2C1-4746-8723-BB6C24569997}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D038CAC5-D2C1-4746-8723-BB6C24569997}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -612,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453C48B0-44AA-4639-9BA4-7096EF5A2568}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,12 +624,12 @@
     <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -638,22 +637,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -661,331 +660,331 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
+      <c r="B27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>47</v>
+      <c r="B37" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
+      <c r="B38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>49</v>
+      <c r="A42" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>32</v>
+      <c r="A43" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>53</v>
+      <c r="A44" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>52</v>
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>54</v>
+      <c r="A47" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>13</v>
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>16</v>
+      <c r="B54" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>56</v>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
+      <c r="A58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>35</v>
+      <c r="A61" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
     </row>
